--- a/Product Line Revenue Analysis.xlsx
+++ b/Product Line Revenue Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\~excel\excel projects\YipitData\GITHUB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\~excel\excel projects\YipitData\GITHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5F7D4E-9300-458C-8D5D-BBB88AF5F846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6608CF69-249C-4C55-91C6-97EB0D029627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Data" sheetId="2" r:id="rId1"/>
@@ -64,15 +64,6 @@
   </si>
   <si>
     <t>Q4 2014</t>
-  </si>
-  <si>
-    <t>Cars.go.com</t>
-  </si>
-  <si>
-    <t>Planes.go.com</t>
-  </si>
-  <si>
-    <t>Boats.go.com</t>
   </si>
   <si>
     <t>Profit</t>
@@ -205,6 +196,15 @@
   </si>
   <si>
     <t>Outlier Count</t>
+  </si>
+  <si>
+    <t>Boats</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>Planes</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1709,52 @@
     <cellStyle name="Normal 2" xfId="53" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
     <cellStyle name="Percent" xfId="480" builtinId="5"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="44">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59999389629810485"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59999389629810485"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59999389629810485"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2645,7 +2690,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Corp_Go.com_Assignment_Data.xlsx]Sales Data (Analysis)!PivotTable1</c:name>
+    <c:name>[Product Line Revenue Analysis.xlsx]Sales Data (Analysis)!PivotTable1</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -2669,12 +2714,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Go.com</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> 2015 Weekly Revenue by Product Line</a:t>
+              <a:t>2015 Weekly Revenue by Product Line</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2929,7 +2970,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Boats.go.com</c:v>
+                  <c:v>Boats</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3081,7 +3122,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cars.go.com</c:v>
+                  <c:v>Cars</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3236,7 +3277,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Planes.go.com</c:v>
+                  <c:v>Planes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3636,7 +3677,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Go.com Revenue by Quarter</a:t>
+              <a:t>Revenue by Quarter</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3685,7 +3726,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cars.go.com</c:v>
+                  <c:v>Cars</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3783,7 +3824,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Planes.go.com</c:v>
+                  <c:v>Planes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3881,7 +3922,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Boats.go.com</c:v>
+                  <c:v>Boats</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4215,7 +4256,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Go.com Profit by Quarter</a:t>
+              <a:t>Profit by Quarter</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4264,7 +4305,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Cars.go.com </c:v>
+                  <c:v> Cars </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4362,7 +4403,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Planes.go.com </c:v>
+                  <c:v> Planes </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4460,7 +4501,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Boats.go.com </c:v>
+                  <c:v> Boats </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8287,9 +8328,9 @@
     <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
       <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
+        <item n="Boats" x="2"/>
+        <item n="Cars" x="0"/>
+        <item n="Planes" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8382,7 +8423,7 @@
     <dataField name="Weekly Revenue" fld="1" baseField="3" baseItem="2" numFmtId="167"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="30">
+    <format dxfId="39">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -8394,7 +8435,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="38">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -8819,9 +8860,9 @@
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
+        <item n="Planes" x="1"/>
+        <item n="Cars" x="0"/>
+        <item n="Boats" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8870,7 +8911,7 @@
     <dataField name="Sum of Revenue" fld="1" baseField="0" baseItem="0" numFmtId="167"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="28">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8887,56 +8928,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B721F53-2B85-43B3-B751-D5840E86D0E0}" name="Table3" displayName="Table3" ref="B5:D261" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B721F53-2B85-43B3-B751-D5840E86D0E0}" name="Table3" displayName="Table3" ref="B5:D261" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="B5:D261" xr:uid="{8B721F53-2B85-43B3-B751-D5840E86D0E0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:D261">
     <sortCondition ref="B5:B261"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E5D5B2C-1998-4619-929D-A3789A4087E0}" name="Date" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{EA34F3AB-D3BF-42A9-A709-2563FE25CD16}" name="Revenue" dataDxfId="32" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{7AAB7189-2FE6-4D85-A244-FDB67009F175}" name="Product Line" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{4E5D5B2C-1998-4619-929D-A3789A4087E0}" name="Date" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{EA34F3AB-D3BF-42A9-A709-2563FE25CD16}" name="Revenue" dataDxfId="41" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{7AAB7189-2FE6-4D85-A244-FDB67009F175}" name="Product Line" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83C01ADB-AD2E-49F7-A069-0F5049E17614}" name="Table62" displayName="Table62" ref="A11:D17" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83C01ADB-AD2E-49F7-A069-0F5049E17614}" name="Table62" displayName="Table62" ref="A11:D17" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A11:D17" xr:uid="{83C01ADB-AD2E-49F7-A069-0F5049E17614}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AE08FF2D-B6D2-46EE-80DE-9DCB9AA7CD7D}" name="Quarters" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{FAB459FA-3777-4634-AD0B-A53C80F61473}" name="Cars.go.com" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{3754F615-14E9-4711-9773-44438797CCFC}" name="Planes.go.com" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{1FBFB6E9-DA8A-4BA2-BD9F-0B05A2315B21}" name="Boats.go.com" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{AE08FF2D-B6D2-46EE-80DE-9DCB9AA7CD7D}" name="Quarters" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{FAB459FA-3777-4634-AD0B-A53C80F61473}" name="Cars" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{3754F615-14E9-4711-9773-44438797CCFC}" name="Planes" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{1FBFB6E9-DA8A-4BA2-BD9F-0B05A2315B21}" name="Boats" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C34D4C2A-2085-4BF0-9B2F-25A9974CC747}" name="Table683" displayName="Table683" ref="A20:D26" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C34D4C2A-2085-4BF0-9B2F-25A9974CC747}" name="Table683" displayName="Table683" ref="A20:D26" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A20:D26" xr:uid="{C34D4C2A-2085-4BF0-9B2F-25A9974CC747}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6984F4F7-EFA5-4384-86DB-4773D136859E}" name="Quarters" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{DEC45F96-79B7-459D-8CBD-41D7A53C140D}" name="Cars.go.com" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{5D309F34-A11E-4209-941C-E41AB18B0119}" name="Planes.go.com" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{9DA51263-0C31-43B2-9016-E543C4F05F5E}" name="Boats.go.com" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{6984F4F7-EFA5-4384-86DB-4773D136859E}" name="Quarters" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{DEC45F96-79B7-459D-8CBD-41D7A53C140D}" name="Cars" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{5D309F34-A11E-4209-941C-E41AB18B0119}" name="Planes" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{9DA51263-0C31-43B2-9016-E543C4F05F5E}" name="Boats" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BCB6B111-062F-4562-927A-B2F84AF95D03}" name="Table4" displayName="Table4" ref="A1:D77" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BCB6B111-062F-4562-927A-B2F84AF95D03}" name="Table4" displayName="Table4" ref="A1:D77" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A1:D77" xr:uid="{BCB6B111-062F-4562-927A-B2F84AF95D03}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D77">
     <sortCondition ref="A1:A77"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5B8355DF-F078-4173-AA9F-19EE138F57CD}" name="Date" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{BFE5440E-CA0F-4C38-9AD0-7597BBDBDDC8}" name="Revenue" dataDxfId="13" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{9ED8CA2D-0500-4CFA-A3A4-56CB97C7E4C1}" name="Product Line" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{5B8355DF-F078-4173-AA9F-19EE138F57CD}" name="Date" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{BFE5440E-CA0F-4C38-9AD0-7597BBDBDDC8}" name="Revenue" dataDxfId="22" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{9ED8CA2D-0500-4CFA-A3A4-56CB97C7E4C1}" name="Product Line" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{E69F72D9-71AF-4654-917D-686BA0650235}" name="Outlier?">
       <calculatedColumnFormula>OR(B2&lt;$G$5,B2&gt;$G$6)</calculatedColumnFormula>
     </tableColumn>
@@ -8946,13 +8987,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{31CC6A17-486D-4DE3-A31A-B398C20CAABC}" name="Table6" displayName="Table6" ref="A1:D91" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{31CC6A17-486D-4DE3-A31A-B398C20CAABC}" name="Table6" displayName="Table6" ref="A1:D91" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19">
   <autoFilter ref="A1:D91" xr:uid="{31CC6A17-486D-4DE3-A31A-B398C20CAABC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DEA4012E-EFA7-4B7E-800A-7F56E4FFC261}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{85D89F6F-BB4B-4AC8-B942-07189E009300}" name="Revenue" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{979D750B-4040-4CA1-820F-36E48F777D36}" name="Product Line" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{110A815C-6168-4BC1-B1FE-82EC1AB5643C}" name="Outlier?" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{DEA4012E-EFA7-4B7E-800A-7F56E4FFC261}" name="Date" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{85D89F6F-BB4B-4AC8-B942-07189E009300}" name="Revenue" dataDxfId="17" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{979D750B-4040-4CA1-820F-36E48F777D36}" name="Product Line" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{110A815C-6168-4BC1-B1FE-82EC1AB5643C}" name="Outlier?" dataDxfId="15">
       <calculatedColumnFormula>OR(B2&lt;$G$5,B2&gt;$G$6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8961,13 +9002,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7C587649-67A8-4545-8ADA-38403E930684}" name="Table5" displayName="Table5" ref="A1:D91" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7C587649-67A8-4545-8ADA-38403E930684}" name="Table5" displayName="Table5" ref="A1:D91" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13">
   <autoFilter ref="A1:D91" xr:uid="{7C587649-67A8-4545-8ADA-38403E930684}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CFA3D55B-43D7-4C3B-AFDB-0DF9DDDCE5AA}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{83B0019A-4ACB-4692-AA2A-1394C15B7CCC}" name="Revenue" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{17AE981B-14EA-4F11-AF9C-391CA2ADA47D}" name="Product Line" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{C1569E33-80A6-46FA-9457-5C0B511546AD}" name="Outlier?" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{CFA3D55B-43D7-4C3B-AFDB-0DF9DDDCE5AA}" name="Date" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{83B0019A-4ACB-4692-AA2A-1394C15B7CCC}" name="Revenue" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{17AE981B-14EA-4F11-AF9C-391CA2ADA47D}" name="Product Line" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{C1569E33-80A6-46FA-9457-5C0B511546AD}" name="Outlier?" dataDxfId="9">
       <calculatedColumnFormula>OR(B2&lt;$G$5,B2&gt;$G$6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9299,24 +9340,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="5" max="5" width="16.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8984375" style="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="1"/>
-    <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="1"/>
+    <col min="9" max="10" width="10.8984375" style="1"/>
+    <col min="11" max="11" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.09765625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -9331,15 +9372,15 @@
     <row r="4" spans="2:11">
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75">
+    <row r="5" spans="2:11" ht="15.6">
       <c r="B5" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -9350,7 +9391,7 @@
         <v>239376.47999999998</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="14"/>
@@ -9367,7 +9408,7 @@
         <v>108632.4</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="14"/>
@@ -9383,7 +9424,7 @@
         <v>31494.014999999999</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="14"/>
@@ -9399,7 +9440,7 @@
         <v>37594.559999999998</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E9" s="15"/>
     </row>
@@ -9411,7 +9452,7 @@
         <v>552064.79999999993</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14"/>
@@ -9424,7 +9465,7 @@
         <v>238344.12</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="14"/>
@@ -9437,7 +9478,7 @@
         <v>24042.720000000001</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E12" s="15"/>
     </row>
@@ -9449,7 +9490,7 @@
         <v>334413.59999999998</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E13" s="15"/>
     </row>
@@ -9461,7 +9502,7 @@
         <v>51614.01</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -9473,7 +9514,7 @@
         <v>25352.639999999999</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E15" s="15"/>
     </row>
@@ -9485,7 +9526,7 @@
         <v>320344.8</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E16" s="15"/>
     </row>
@@ -9497,7 +9538,7 @@
         <v>156188.655</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E17" s="15"/>
     </row>
@@ -9509,7 +9550,7 @@
         <v>627.84</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E18" s="15"/>
     </row>
@@ -9521,7 +9562,7 @@
         <v>170732.4</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E19" s="15"/>
     </row>
@@ -9533,7 +9574,7 @@
         <v>230108.44500000001</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -9545,7 +9586,7 @@
         <v>13005.6</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E21" s="15"/>
     </row>
@@ -9557,7 +9598,7 @@
         <v>115460.4</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E22" s="15"/>
     </row>
@@ -9569,7 +9610,7 @@
         <v>241043.04</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E23" s="15"/>
     </row>
@@ -9581,7 +9622,7 @@
         <v>25408.800000000003</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E24" s="15"/>
     </row>
@@ -9593,7 +9634,7 @@
         <v>87338.4</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E25" s="15"/>
     </row>
@@ -9605,7 +9646,7 @@
         <v>41734.035000000003</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E26" s="15"/>
     </row>
@@ -9617,7 +9658,7 @@
         <v>51368.160000000003</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E27" s="15"/>
     </row>
@@ -9629,7 +9670,7 @@
         <v>36722.400000000001</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E28" s="15"/>
     </row>
@@ -9641,7 +9682,7 @@
         <v>1395072.3149999999</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E29" s="15"/>
     </row>
@@ -9653,7 +9694,7 @@
         <v>36186.239999999998</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E30" s="15"/>
     </row>
@@ -9665,7 +9706,7 @@
         <v>43419.6</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E31" s="15"/>
     </row>
@@ -9677,7 +9718,7 @@
         <v>281952.09000000003</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E32" s="15"/>
     </row>
@@ -9689,7 +9730,7 @@
         <v>25777.919999999998</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E33" s="15"/>
     </row>
@@ -9701,7 +9742,7 @@
         <v>73466.399999999994</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E34" s="15"/>
     </row>
@@ -9713,7 +9754,7 @@
         <v>675399.06</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E35" s="15"/>
     </row>
@@ -9725,7 +9766,7 @@
         <v>233245.44</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E36" s="15"/>
     </row>
@@ -9737,7 +9778,7 @@
         <v>89812.800000000003</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -9749,7 +9790,7 @@
         <v>71660.294999999998</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E38" s="15"/>
     </row>
@@ -9761,7 +9802,7 @@
         <v>31712.639999999999</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -9773,7 +9814,7 @@
         <v>142387.19999999998</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E40" s="15"/>
     </row>
@@ -9785,7 +9826,7 @@
         <v>222513.48</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E41" s="15"/>
     </row>
@@ -9797,7 +9838,7 @@
         <v>156256.80000000002</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E42" s="15"/>
     </row>
@@ -9809,7 +9850,7 @@
         <v>571988.4</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E43" s="15"/>
     </row>
@@ -9821,7 +9862,7 @@
         <v>33260.22</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E44" s="15"/>
     </row>
@@ -9833,7 +9874,7 @@
         <v>2211.8399999999997</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E45" s="15"/>
     </row>
@@ -9845,7 +9886,7 @@
         <v>16082.4</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E46" s="15"/>
     </row>
@@ -9857,7 +9898,7 @@
         <v>19260.990000000002</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E47" s="15"/>
     </row>
@@ -9869,7 +9910,7 @@
         <v>65373.119999999995</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E48" s="15"/>
     </row>
@@ -9881,7 +9922,7 @@
         <v>34863.599999999999</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E49" s="15"/>
     </row>
@@ -9893,7 +9934,7 @@
         <v>487563.3</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E50" s="15"/>
     </row>
@@ -9905,7 +9946,7 @@
         <v>9273.1200000000008</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E51" s="15"/>
     </row>
@@ -9917,7 +9958,7 @@
         <v>104588.4</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E52" s="15"/>
     </row>
@@ -9929,7 +9970,7 @@
         <v>43939.665000000001</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E53" s="15"/>
     </row>
@@ -9941,7 +9982,7 @@
         <v>38593.920000000006</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E54" s="15"/>
     </row>
@@ -9953,7 +9994,7 @@
         <v>164692.79999999999</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E55" s="15"/>
     </row>
@@ -9965,7 +10006,7 @@
         <v>754203.55500000005</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E56" s="15"/>
     </row>
@@ -9977,7 +10018,7 @@
         <v>15390.72</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E57" s="15"/>
     </row>
@@ -9989,7 +10030,7 @@
         <v>82984.800000000003</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E58" s="15"/>
     </row>
@@ -10001,7 +10042,7 @@
         <v>140752.07999999999</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E59" s="15"/>
     </row>
@@ -10013,7 +10054,7 @@
         <v>7022.880000000001</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E60" s="15"/>
     </row>
@@ -10025,7 +10066,7 @@
         <v>3790.7999999999997</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E61" s="15"/>
     </row>
@@ -10037,7 +10078,7 @@
         <v>1020877.83</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E62" s="15"/>
     </row>
@@ -10049,7 +10090,7 @@
         <v>45378.720000000001</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E63" s="15"/>
     </row>
@@ -10061,7 +10102,7 @@
         <v>89874</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E64" s="15"/>
     </row>
@@ -10073,7 +10114,7 @@
         <v>68689.214999999997</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E65" s="15"/>
     </row>
@@ -10085,7 +10126,7 @@
         <v>14133.119999999999</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E66" s="15"/>
     </row>
@@ -10097,7 +10138,7 @@
         <v>289850.39999999997</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E67" s="15"/>
     </row>
@@ -10109,7 +10150,7 @@
         <v>515799.9</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E68" s="15"/>
     </row>
@@ -10121,7 +10162,7 @@
         <v>57802.559999999998</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E69" s="15"/>
     </row>
@@ -10133,7 +10174,7 @@
         <v>135958.79999999999</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E70" s="15"/>
     </row>
@@ -10145,7 +10186,7 @@
         <v>112076.05500000001</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E71" s="15"/>
     </row>
@@ -10157,7 +10198,7 @@
         <v>189674.40000000002</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E72" s="15"/>
     </row>
@@ -10169,7 +10210,7 @@
         <v>90903.599999999991</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E73" s="15"/>
     </row>
@@ -10181,7 +10222,7 @@
         <v>881767.21499999997</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E74" s="15"/>
     </row>
@@ -10193,7 +10234,7 @@
         <v>41668.320000000007</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E75" s="15"/>
     </row>
@@ -10205,7 +10246,7 @@
         <v>208881.6</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E76" s="15"/>
     </row>
@@ -10217,7 +10258,7 @@
         <v>1040853.24</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E77" s="15"/>
     </row>
@@ -10229,7 +10270,7 @@
         <v>37430.879999999997</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E78" s="15"/>
     </row>
@@ -10241,7 +10282,7 @@
         <v>38420.400000000001</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E79" s="15"/>
     </row>
@@ -10253,7 +10294,7 @@
         <v>826870.27500000002</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E80" s="15"/>
     </row>
@@ -10265,7 +10306,7 @@
         <v>170376.48</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E81" s="15"/>
     </row>
@@ -10277,7 +10318,7 @@
         <v>107774.39999999999</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E82" s="15"/>
     </row>
@@ -10289,7 +10330,7 @@
         <v>87142.23</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E83" s="15"/>
     </row>
@@ -10301,7 +10342,7 @@
         <v>224818.56000000003</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E84" s="15"/>
     </row>
@@ -10313,7 +10354,7 @@
         <v>501480</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E85" s="15"/>
     </row>
@@ -10325,7 +10366,7 @@
         <v>1233959.2649999999</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E86" s="15"/>
     </row>
@@ -10337,7 +10378,7 @@
         <v>28876.800000000003</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E87" s="15"/>
     </row>
@@ -10349,7 +10390,7 @@
         <v>77298</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E88" s="15"/>
     </row>
@@ -10361,7 +10402,7 @@
         <v>1271409.615</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E89" s="15"/>
     </row>
@@ -10373,7 +10414,7 @@
         <v>64681.440000000002</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E90" s="15"/>
     </row>
@@ -10385,7 +10426,7 @@
         <v>96086.399999999994</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E91" s="15"/>
     </row>
@@ -10397,7 +10438,7 @@
         <v>149319.45000000001</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E92" s="15"/>
     </row>
@@ -10409,7 +10450,7 @@
         <v>55969.919999999998</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E93" s="15"/>
     </row>
@@ -10421,7 +10462,7 @@
         <v>285818.39999999997</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E94" s="15"/>
     </row>
@@ -10433,7 +10474,7 @@
         <v>96347.475000000006</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E95" s="15"/>
     </row>
@@ -10445,7 +10486,7 @@
         <v>37484.639999999999</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E96" s="15"/>
     </row>
@@ -10457,7 +10498,7 @@
         <v>80614.8</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E97" s="15"/>
     </row>
@@ -10469,7 +10510,7 @@
         <v>601147.57499999995</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E98" s="15"/>
     </row>
@@ -10481,7 +10522,7 @@
         <v>251.04000000000002</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E99" s="15"/>
     </row>
@@ -10493,7 +10534,7 @@
         <v>60554.399999999994</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E100" s="15"/>
     </row>
@@ -10505,7 +10546,7 @@
         <v>24409.35</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E101" s="15"/>
     </row>
@@ -10517,7 +10558,7 @@
         <v>17110.079999999998</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E102" s="15"/>
     </row>
@@ -10529,7 +10570,7 @@
         <v>498453.6</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E103" s="15"/>
     </row>
@@ -10541,7 +10582,7 @@
         <v>207380.25</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E104" s="15"/>
     </row>
@@ -10553,7 +10594,7 @@
         <v>168221.28000000003</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E105" s="15"/>
     </row>
@@ -10565,7 +10606,7 @@
         <v>272551.2</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E106" s="15"/>
     </row>
@@ -10577,7 +10618,7 @@
         <v>1033890.48</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E107" s="15"/>
     </row>
@@ -10589,7 +10630,7 @@
         <v>46895.520000000004</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E108" s="15"/>
     </row>
@@ -10601,7 +10642,7 @@
         <v>100866</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E109" s="15"/>
     </row>
@@ -10613,7 +10654,7 @@
         <v>194489.505</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E110" s="15"/>
     </row>
@@ -10625,7 +10666,7 @@
         <v>30686.400000000001</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E111" s="15"/>
     </row>
@@ -10637,7 +10678,7 @@
         <v>251509.19999999998</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E112" s="15"/>
     </row>
@@ -10649,7 +10690,7 @@
         <v>114911.05500000001</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E113" s="15"/>
     </row>
@@ -10661,7 +10702,7 @@
         <v>195005.76</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E114" s="15"/>
     </row>
@@ -10673,7 +10714,7 @@
         <v>285852</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E115" s="15"/>
     </row>
@@ -10685,7 +10726,7 @@
         <v>757937.25</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E116" s="15"/>
     </row>
@@ -10697,7 +10738,7 @@
         <v>77977.2</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E117" s="15"/>
     </row>
@@ -10709,7 +10750,7 @@
         <v>533728.44000000006</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E118" s="15"/>
     </row>
@@ -10721,7 +10762,7 @@
         <v>535593.6</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E119" s="15"/>
     </row>
@@ -10733,7 +10774,7 @@
         <v>379011.15</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E120" s="15"/>
     </row>
@@ -10745,7 +10786,7 @@
         <v>80180.399999999994</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E121" s="15"/>
     </row>
@@ -10757,7 +10798,7 @@
         <v>215995.815</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E122" s="15"/>
     </row>
@@ -10769,7 +10810,7 @@
         <v>121536</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E123" s="15"/>
     </row>
@@ -10781,7 +10822,7 @@
         <v>277645.72499999998</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E124" s="15"/>
     </row>
@@ -10793,7 +10834,7 @@
         <v>116959.2</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E125" s="15"/>
     </row>
@@ -10805,7 +10846,7 @@
         <v>243169.29</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E126" s="15"/>
     </row>
@@ -10817,7 +10858,7 @@
         <v>143286</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E127" s="15"/>
     </row>
@@ -10829,7 +10870,7 @@
         <v>723185.82</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E128" s="15"/>
     </row>
@@ -10841,7 +10882,7 @@
         <v>544267.19999999995</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E129" s="15"/>
     </row>
@@ -10853,7 +10894,7 @@
         <v>52793.37</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E130" s="15"/>
     </row>
@@ -10865,7 +10906,7 @@
         <v>106639.2</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E131" s="15"/>
     </row>
@@ -10877,7 +10918,7 @@
         <v>11161.395</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E132" s="15"/>
     </row>
@@ -10889,7 +10930,7 @@
         <v>31240.799999999999</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E133" s="15"/>
     </row>
@@ -10901,7 +10942,7 @@
         <v>77917.14</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E134" s="15"/>
     </row>
@@ -10913,7 +10954,7 @@
         <v>402483.6</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E135" s="15"/>
     </row>
@@ -10925,7 +10966,7 @@
         <v>341081.685</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E136" s="15"/>
     </row>
@@ -10937,7 +10978,7 @@
         <v>227007.6</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E137" s="15"/>
     </row>
@@ -10949,7 +10990,7 @@
         <v>212327.32500000001</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E138" s="15"/>
     </row>
@@ -10961,7 +11002,7 @@
         <v>56900.4</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E139" s="15"/>
     </row>
@@ -10973,7 +11014,7 @@
         <v>19425.420000000002</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E140" s="15"/>
     </row>
@@ -10985,7 +11026,7 @@
         <v>365858.39999999997</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E141" s="15"/>
     </row>
@@ -10997,7 +11038,7 @@
         <v>1223895.0149999999</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E142" s="15"/>
     </row>
@@ -11009,7 +11050,7 @@
         <v>4372.8</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E143" s="15"/>
     </row>
@@ -11021,7 +11062,7 @@
         <v>233802.45</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E144" s="15"/>
     </row>
@@ -11033,7 +11074,7 @@
         <v>35220</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E145" s="15"/>
     </row>
@@ -11045,7 +11086,7 @@
         <v>105668.4</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E146" s="15"/>
     </row>
@@ -11057,7 +11098,7 @@
         <v>606698.505</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E147" s="15"/>
     </row>
@@ -11069,7 +11110,7 @@
         <v>13255.68</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E148" s="15"/>
     </row>
@@ -11081,7 +11122,7 @@
         <v>59313.599999999999</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E149" s="15"/>
     </row>
@@ -11093,7 +11134,7 @@
         <v>193244.94</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E150" s="15"/>
     </row>
@@ -11105,7 +11146,7 @@
         <v>94519.200000000012</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E151" s="15"/>
     </row>
@@ -11117,7 +11158,7 @@
         <v>74559.599999999991</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E152" s="15"/>
     </row>
@@ -11129,7 +11170,7 @@
         <v>319461.97499999998</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E153" s="15"/>
     </row>
@@ -11141,7 +11182,7 @@
         <v>41878.559999999998</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E154" s="15"/>
     </row>
@@ -11153,7 +11194,7 @@
         <v>156504</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E155" s="15"/>
     </row>
@@ -11165,7 +11206,7 @@
         <v>670420.80000000005</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E156" s="15"/>
     </row>
@@ -11177,7 +11218,7 @@
         <v>28663.68</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E157" s="15"/>
     </row>
@@ -11189,7 +11230,7 @@
         <v>97882.8</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E158" s="15"/>
     </row>
@@ -11201,7 +11242,7 @@
         <v>28196.91</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E159" s="15"/>
     </row>
@@ -11213,7 +11254,7 @@
         <v>237997.91999999998</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E160" s="15"/>
     </row>
@@ -11225,7 +11266,7 @@
         <v>142374</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E161" s="15"/>
     </row>
@@ -11237,7 +11278,7 @@
         <v>1167574.905</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E162" s="15"/>
     </row>
@@ -11249,7 +11290,7 @@
         <v>55892.640000000007</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E163" s="15"/>
     </row>
@@ -11261,7 +11302,7 @@
         <v>163490.4</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E164" s="15"/>
     </row>
@@ -11273,7 +11314,7 @@
         <v>620910.36</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E165" s="15"/>
     </row>
@@ -11285,7 +11326,7 @@
         <v>35808</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E166" s="15"/>
     </row>
@@ -11297,7 +11338,7 @@
         <v>245263.19999999998</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E167" s="15"/>
     </row>
@@ -11309,7 +11350,7 @@
         <v>319683.10499999998</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E168" s="15"/>
     </row>
@@ -11321,7 +11362,7 @@
         <v>37303.200000000004</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E169" s="15"/>
     </row>
@@ -11333,7 +11374,7 @@
         <v>216908.4</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E170" s="15"/>
     </row>
@@ -11345,7 +11386,7 @@
         <v>142543.79999999999</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E171" s="15"/>
     </row>
@@ -11357,7 +11398,7 @@
         <v>21041.279999999999</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E172" s="15"/>
     </row>
@@ -11369,7 +11410,7 @@
         <v>171472.8</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E173" s="15"/>
     </row>
@@ -11381,7 +11422,7 @@
         <v>58233.735000000001</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E174" s="15"/>
     </row>
@@ -11393,7 +11434,7 @@
         <v>18349.919999999998</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E175" s="15"/>
     </row>
@@ -11405,7 +11446,7 @@
         <v>329599.2</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E176" s="15"/>
     </row>
@@ -11417,7 +11458,7 @@
         <v>147788.54999999999</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E177" s="15"/>
     </row>
@@ -11429,7 +11470,7 @@
         <v>9785.76</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E178" s="15"/>
     </row>
@@ -11441,7 +11482,7 @@
         <v>48717.599999999999</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E179" s="15"/>
     </row>
@@ -11453,7 +11494,7 @@
         <v>300322.89</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E180" s="15"/>
     </row>
@@ -11465,7 +11506,7 @@
         <v>25991.52</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E181" s="15"/>
     </row>
@@ -11477,7 +11518,7 @@
         <v>378519.6</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E182" s="15"/>
     </row>
@@ -11489,7 +11530,7 @@
         <v>163772.28</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E183" s="15"/>
     </row>
@@ -11501,7 +11542,7 @@
         <v>9428.64</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E184" s="15"/>
     </row>
@@ -11513,7 +11554,7 @@
         <v>205700.4</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E185" s="15"/>
     </row>
@@ -11525,7 +11566,7 @@
         <v>164143.66500000001</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E186" s="15"/>
     </row>
@@ -11537,7 +11578,7 @@
         <v>34575.360000000001</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E187" s="15"/>
     </row>
@@ -11549,7 +11590,7 @@
         <v>343754.39999999997</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E188" s="15"/>
     </row>
@@ -11561,7 +11602,7 @@
         <v>71906.94</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E189" s="15"/>
     </row>
@@ -11573,7 +11614,7 @@
         <v>630.24</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E190" s="15"/>
     </row>
@@ -11585,7 +11626,7 @@
         <v>427430.39999999997</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E191" s="15"/>
     </row>
@@ -11597,7 +11638,7 @@
         <v>34090.875</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E192" s="15"/>
     </row>
@@ -11609,7 +11650,7 @@
         <v>32628.48</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E193" s="15"/>
     </row>
@@ -11621,7 +11662,7 @@
         <v>89178</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E194" s="15"/>
     </row>
@@ -11633,7 +11674,7 @@
         <v>183844.08</v>
       </c>
       <c r="D195" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E195" s="15"/>
     </row>
@@ -11645,7 +11686,7 @@
         <v>95619.839999999997</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E196" s="15"/>
     </row>
@@ -11657,7 +11698,7 @@
         <v>38163.599999999999</v>
       </c>
       <c r="D197" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E197" s="15"/>
     </row>
@@ -11669,7 +11710,7 @@
         <v>175631.08499999999</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E198" s="15"/>
     </row>
@@ -11681,7 +11722,7 @@
         <v>21174.720000000001</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E199" s="15"/>
     </row>
@@ -11693,7 +11734,7 @@
         <v>132982.79999999999</v>
       </c>
       <c r="D200" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E200" s="15"/>
     </row>
@@ -11705,7 +11746,7 @@
         <v>136975.86000000002</v>
       </c>
       <c r="D201" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E201" s="15"/>
     </row>
@@ -11717,7 +11758,7 @@
         <v>23726.880000000001</v>
       </c>
       <c r="D202" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E202" s="15"/>
     </row>
@@ -11729,7 +11770,7 @@
         <v>105732</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E203" s="15"/>
     </row>
@@ -11741,7 +11782,7 @@
         <v>186687.58499999999</v>
       </c>
       <c r="D204" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E204" s="15"/>
     </row>
@@ -11753,7 +11794,7 @@
         <v>43570.559999999998</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E205" s="15"/>
     </row>
@@ -11765,7 +11806,7 @@
         <v>52159.199999999997</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E206" s="15"/>
     </row>
@@ -11777,7 +11818,7 @@
         <v>161351.19</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E207" s="15"/>
     </row>
@@ -11789,7 +11830,7 @@
         <v>53816.160000000003</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E208" s="15"/>
     </row>
@@ -11801,7 +11842,7 @@
         <v>21932.399999999998</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E209" s="15"/>
     </row>
@@ -11813,7 +11854,7 @@
         <v>226811.34</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E210" s="15"/>
     </row>
@@ -11825,7 +11866,7 @@
         <v>7098.72</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E211" s="15"/>
     </row>
@@ -11837,7 +11878,7 @@
         <v>10310.4</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E212" s="15"/>
     </row>
@@ -11849,7 +11890,7 @@
         <v>174122.86499999999</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E213" s="15"/>
     </row>
@@ -11861,7 +11902,7 @@
         <v>172171.68000000002</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E214" s="15"/>
     </row>
@@ -11873,7 +11914,7 @@
         <v>75301.2</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E215" s="15"/>
     </row>
@@ -11885,7 +11926,7 @@
         <v>730814.80500000005</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E216" s="15"/>
     </row>
@@ -11897,7 +11938,7 @@
         <v>151936.80000000002</v>
       </c>
       <c r="D217" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E217" s="15"/>
     </row>
@@ -11909,7 +11950,7 @@
         <v>18448.8</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E218" s="15"/>
     </row>
@@ -11921,7 +11962,7 @@
         <v>802333.35</v>
       </c>
       <c r="D219" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E219" s="15"/>
     </row>
@@ -11933,7 +11974,7 @@
         <v>37769.279999999999</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E220" s="15"/>
     </row>
@@ -11945,7 +11986,7 @@
         <v>530793.6</v>
       </c>
       <c r="D221" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E221" s="15"/>
     </row>
@@ -11957,7 +11998,7 @@
         <v>236719.66500000001</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E222" s="15"/>
     </row>
@@ -11969,7 +12010,7 @@
         <v>41821.920000000006</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E223" s="15"/>
     </row>
@@ -11981,7 +12022,7 @@
         <v>113904</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E224" s="15"/>
     </row>
@@ -11993,7 +12034,7 @@
         <v>635071.18500000006</v>
       </c>
       <c r="D225" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E225" s="15"/>
     </row>
@@ -12005,7 +12046,7 @@
         <v>14777.760000000002</v>
       </c>
       <c r="D226" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E226" s="15"/>
     </row>
@@ -12017,7 +12058,7 @@
         <v>109087.2</v>
       </c>
       <c r="D227" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E227" s="15"/>
     </row>
@@ -12029,7 +12070,7 @@
         <v>145687.815</v>
       </c>
       <c r="D228" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E228" s="15"/>
     </row>
@@ -12041,7 +12082,7 @@
         <v>49776</v>
       </c>
       <c r="D229" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E229" s="15"/>
     </row>
@@ -12053,7 +12094,7 @@
         <v>517848</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E230" s="15"/>
     </row>
@@ -12065,7 +12106,7 @@
         <v>872939.02500000002</v>
       </c>
       <c r="D231" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E231" s="15"/>
     </row>
@@ -12077,7 +12118,7 @@
         <v>203158.56</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E232" s="15"/>
     </row>
@@ -12089,7 +12130,7 @@
         <v>364538.39999999997</v>
       </c>
       <c r="D233" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E233" s="15"/>
     </row>
@@ -12101,7 +12142,7 @@
         <v>150807.82500000001</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E234" s="15"/>
     </row>
@@ -12113,7 +12154,7 @@
         <v>152751.84</v>
       </c>
       <c r="D235" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E235" s="15"/>
     </row>
@@ -12125,7 +12166,7 @@
         <v>95810.4</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E236" s="15"/>
     </row>
@@ -12137,7 +12178,7 @@
         <v>743784.93</v>
       </c>
       <c r="D237" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E237" s="15"/>
     </row>
@@ -12149,7 +12190,7 @@
         <v>30502.559999999998</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E238" s="15"/>
     </row>
@@ -12161,7 +12202,7 @@
         <v>541342.79999999993</v>
       </c>
       <c r="D239" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E239" s="15"/>
     </row>
@@ -12173,7 +12214,7 @@
         <v>354026.29499999998</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E240" s="15"/>
     </row>
@@ -12185,7 +12226,7 @@
         <v>38691.360000000001</v>
       </c>
       <c r="D241" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E241" s="15"/>
     </row>
@@ -12197,7 +12238,7 @@
         <v>58910.400000000001</v>
       </c>
       <c r="D242" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E242" s="15"/>
     </row>
@@ -12209,7 +12250,7 @@
         <v>313145.59500000003</v>
       </c>
       <c r="D243" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E243" s="15"/>
     </row>
@@ -12221,7 +12262,7 @@
         <v>158603.04</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E244" s="15"/>
     </row>
@@ -12233,7 +12274,7 @@
         <v>374929.2</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E245" s="15"/>
     </row>
@@ -12245,7 +12286,7 @@
         <v>197157.24</v>
       </c>
       <c r="D246" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E246" s="15"/>
     </row>
@@ -12257,7 +12298,7 @@
         <v>25699.68</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E247" s="15"/>
     </row>
@@ -12269,7 +12310,7 @@
         <v>450775.2</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E248" s="15"/>
     </row>
@@ -12281,7 +12322,7 @@
         <v>6999.6149999999998</v>
       </c>
       <c r="D249" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E249" s="15"/>
     </row>
@@ -12293,7 +12334,7 @@
         <v>32183.520000000004</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E250" s="15"/>
     </row>
@@ -12305,7 +12346,7 @@
         <v>68239.199999999997</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E251" s="15"/>
     </row>
@@ -12317,7 +12358,7 @@
         <v>154907.23500000002</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E252" s="15"/>
     </row>
@@ -12329,7 +12370,7 @@
         <v>259.68</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E253" s="15"/>
     </row>
@@ -12341,7 +12382,7 @@
         <v>303039.59999999998</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E254" s="15"/>
     </row>
@@ -12353,7 +12394,7 @@
         <v>127322.685</v>
       </c>
       <c r="D255" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E255" s="15"/>
     </row>
@@ -12365,7 +12406,7 @@
         <v>9071.0399999999991</v>
       </c>
       <c r="D256" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E256" s="15"/>
     </row>
@@ -12377,7 +12418,7 @@
         <v>109822.8</v>
       </c>
       <c r="D257" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E257" s="15"/>
     </row>
@@ -12389,7 +12430,7 @@
         <v>116064.9</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E258" s="15"/>
     </row>
@@ -12401,7 +12442,7 @@
         <v>174908.64</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E259" s="15"/>
     </row>
@@ -12413,7 +12454,7 @@
         <v>66280.800000000003</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E260" s="15"/>
     </row>
@@ -12425,7 +12466,7 @@
         <v>787021.51500000001</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E261" s="15"/>
     </row>
@@ -12447,22 +12488,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B6:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="8" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.875" style="1"/>
+    <col min="3" max="8" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" ht="15.75">
+    <row r="6" spans="2:12" ht="15.6">
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -12479,10 +12520,10 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="15.75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.6">
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -12495,7 +12536,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4">
         <v>6085063</v>
@@ -12513,13 +12554,13 @@
         <v>5906352</v>
       </c>
       <c r="H8" s="4">
-        <f>GETPIVOTDATA("Revenue",'Historical Data (Analysis)'!$A$3,"Product Line","Cars.go.com")</f>
+        <f>GETPIVOTDATA("Revenue",'Historical Data (Analysis)'!$A$3,"Product Line","Cars")</f>
         <v>16757524.800000003</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4">
         <v>32339403</v>
@@ -12537,7 +12578,7 @@
         <v>45337642</v>
       </c>
       <c r="H9" s="4">
-        <f>GETPIVOTDATA("Revenue",'Historical Data (Analysis)'!$A$3,"Product Line","Planes.go.com")</f>
+        <f>GETPIVOTDATA("Revenue",'Historical Data (Analysis)'!$A$3,"Product Line","Planes")</f>
         <v>32529742.559999999</v>
       </c>
       <c r="I9" s="32"/>
@@ -12545,9 +12586,9 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1">
+    <row r="10" spans="2:12" ht="15.6" thickBot="1">
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8">
         <v>4329578</v>
@@ -12565,7 +12606,7 @@
         <v>5437214</v>
       </c>
       <c r="H10" s="8">
-        <f>GETPIVOTDATA("Revenue",'Historical Data (Analysis)'!$A$3,"Product Line","Boats.go.com")</f>
+        <f>GETPIVOTDATA("Revenue",'Historical Data (Analysis)'!$A$3,"Product Line","Boats")</f>
         <v>4736347.68</v>
       </c>
       <c r="I10" s="32"/>
@@ -12573,7 +12614,7 @@
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="2:12" ht="16.5" thickTop="1">
+    <row r="11" spans="2:12" ht="16.2" thickTop="1">
       <c r="B11" s="9" t="s">
         <v>0</v>
       </c>
@@ -12620,9 +12661,9 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
     </row>
-    <row r="14" spans="2:12" ht="15.75">
+    <row r="14" spans="2:12" ht="15.6">
       <c r="B14" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -12637,7 +12678,7 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4">
         <v>608506.30000000005</v>
@@ -12665,7 +12706,7 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="6" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4">
         <v>161697.01500000001</v>
@@ -12692,9 +12733,9 @@
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1">
+    <row r="17" spans="2:12" ht="15.6" thickBot="1">
       <c r="B17" s="7" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C17" s="8">
         <v>86591.56</v>
@@ -12720,7 +12761,7 @@
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
     </row>
-    <row r="18" spans="2:12" ht="16.5" thickTop="1">
+    <row r="18" spans="2:12" ht="16.2" thickTop="1">
       <c r="B18" s="9" t="s">
         <v>0</v>
       </c>
@@ -12748,7 +12789,7 @@
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75">
+    <row r="19" spans="2:12" ht="15.6">
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -12761,9 +12802,9 @@
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75">
+    <row r="20" spans="2:12" ht="15.6">
       <c r="B20" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -12778,7 +12819,7 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="34" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C21" s="35">
         <f>C15/C8</f>
@@ -12811,7 +12852,7 @@
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="6" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C22" s="36">
         <f t="shared" ref="C22:G23" si="3">C16/C9</f>
@@ -12842,9 +12883,9 @@
       <c r="K22" s="33"/>
       <c r="L22" s="32"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1">
+    <row r="23" spans="2:12" ht="15.6" thickBot="1">
       <c r="B23" s="7" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C23" s="37">
         <f t="shared" si="3"/>
@@ -12875,7 +12916,7 @@
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" thickTop="1">
+    <row r="24" spans="2:12" ht="15.6" thickTop="1">
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
@@ -12889,14 +12930,14 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75">
+    <row r="29" spans="2:12" ht="15.6">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -12938,7 +12979,7 @@
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75">
+    <row r="34" spans="2:12" ht="15.6">
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
@@ -12950,7 +12991,7 @@
       <c r="K34"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75">
+    <row r="35" spans="2:12" ht="15.6">
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
       <c r="D35" s="39"/>
@@ -12962,7 +13003,7 @@
       <c r="K35"/>
       <c r="L35"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75">
+    <row r="36" spans="2:12" ht="15.6">
       <c r="B36" s="40"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -12974,7 +13015,7 @@
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75">
+    <row r="37" spans="2:12" ht="15.6">
       <c r="B37" s="40"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -12986,7 +13027,7 @@
       <c r="K37"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75">
+    <row r="38" spans="2:12" ht="15.6">
       <c r="B38" s="40"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -12998,7 +13039,7 @@
       <c r="K38"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75">
+    <row r="39" spans="2:12" ht="15.6">
       <c r="B39" s="40"/>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -13010,7 +13051,7 @@
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75">
+    <row r="40" spans="2:12" ht="15.6">
       <c r="B40" s="40"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
@@ -13022,7 +13063,7 @@
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75">
+    <row r="41" spans="2:12" ht="15.6">
       <c r="B41" s="40"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -13034,7 +13075,7 @@
       <c r="K41"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75">
+    <row r="42" spans="2:12" ht="15.6">
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
@@ -13046,7 +13087,7 @@
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75">
+    <row r="43" spans="2:12" ht="15.6">
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -13058,7 +13099,7 @@
       <c r="K43"/>
       <c r="L43"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75">
+    <row r="44" spans="2:12" ht="15.6">
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
       <c r="D44" s="39"/>
@@ -13070,7 +13111,7 @@
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75">
+    <row r="45" spans="2:12" ht="15.6">
       <c r="B45" s="40"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -13082,7 +13123,7 @@
       <c r="K45"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75">
+    <row r="46" spans="2:12" ht="15.6">
       <c r="B46" s="40"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -13094,7 +13135,7 @@
       <c r="K46"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75">
+    <row r="47" spans="2:12" ht="15.6">
       <c r="B47" s="40"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -13106,7 +13147,7 @@
       <c r="K47"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75">
+    <row r="48" spans="2:12" ht="15.6">
       <c r="B48" s="40"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
@@ -13118,7 +13159,7 @@
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75">
+    <row r="49" spans="2:12" ht="15.6">
       <c r="B49" s="40"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
@@ -13130,7 +13171,7 @@
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75">
+    <row r="50" spans="2:12" ht="15.6">
       <c r="B50" s="40"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -13142,7 +13183,7 @@
       <c r="K50"/>
       <c r="L50"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75">
+    <row r="51" spans="2:12" ht="15.6">
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
@@ -13193,45 +13234,45 @@
   <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="21">
         <v>365408.64</v>
@@ -13248,7 +13289,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="21">
         <v>536759.04000000004</v>
@@ -13265,7 +13306,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="21">
         <v>195165.6</v>
@@ -13282,7 +13323,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="21">
         <v>750648.00000000012</v>
@@ -13299,7 +13340,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="21">
         <v>390613.92000000004</v>
@@ -13316,7 +13357,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="21">
         <v>225692.16</v>
@@ -13333,7 +13374,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="21">
@@ -13348,7 +13389,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="21">
         <v>213537.12</v>
@@ -13365,7 +13406,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="21">
         <v>416178.72000000003</v>
@@ -13382,7 +13423,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="21">
         <v>220048.80000000002</v>
@@ -13399,7 +13440,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="21">
         <v>490090.08000000007</v>
@@ -13416,7 +13457,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="21">
         <v>531480</v>
@@ -13433,7 +13474,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="21">
         <v>400725.6</v>
@@ -13450,7 +13491,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" s="21">
         <v>4736347.68</v>
@@ -13479,27 +13520,27 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B4" s="21">
         <v>32529742.559999999</v>
@@ -13507,7 +13548,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B5" s="21">
         <v>16757524.800000003</v>
@@ -13515,7 +13556,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B6" s="21">
         <v>4736347.68</v>
@@ -13523,7 +13564,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="21">
         <v>54023615.039999999</v>
@@ -13536,16 +13577,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -13620,18 +13661,18 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" s="44">
-        <f>GETPIVOTDATA("Revenue",'Historical Data (Analysis)'!$A$3,"Product Line","Cars.go.com")</f>
+        <f>GETPIVOTDATA("Revenue",'Historical Data (Analysis)'!$A$3,"Product Line","Cars")</f>
         <v>16757524.800000003</v>
       </c>
       <c r="C17" s="44">
-        <f>GETPIVOTDATA("Revenue",'Historical Data (Analysis)'!$A$3,"Product Line","Planes.go.com")</f>
+        <f>GETPIVOTDATA("Revenue",'Historical Data (Analysis)'!$A$3,"Product Line","Planes")</f>
         <v>32529742.559999999</v>
       </c>
       <c r="D17" s="44">
-        <f>GETPIVOTDATA("Revenue",'Historical Data (Analysis)'!$A$3,"Product Line","Boats.go.com")</f>
+        <f>GETPIVOTDATA("Revenue",'Historical Data (Analysis)'!$A$3,"Product Line","Boats")</f>
         <v>4736347.68</v>
       </c>
     </row>
@@ -13643,7 +13684,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -13651,16 +13692,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -13735,7 +13776,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B26" s="44">
         <v>1675752.4800000004</v>
@@ -13747,18 +13788,18 @@
         <v>94726.953599999993</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.5" thickBot="1"/>
+    <row r="29" spans="1:6" ht="16.2" thickBot="1"/>
     <row r="30" spans="1:6">
       <c r="A30" s="49" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="49" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D30" s="53"/>
       <c r="E30" s="49" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="F30" s="53"/>
     </row>
@@ -13769,19 +13810,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" s="51">
         <v>62320.364210526313</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D32" s="51">
         <v>186194.72000000003</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F32" s="51">
         <v>361441.58399999997</v>
@@ -13789,19 +13830,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="51">
         <v>7691.2276281093727</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D33" s="51">
         <v>16738.317215243889</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F33" s="51">
         <v>37014.555937667465</v>
@@ -13809,19 +13850,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" s="51">
         <v>36744.720000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D34" s="51">
         <v>111863.4</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F34" s="51">
         <v>214161.57</v>
@@ -13829,19 +13870,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" s="51" t="e">
         <v>#N/A</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D35" s="51" t="e">
         <v>#N/A</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F35" s="51" t="e">
         <v>#N/A</v>
@@ -13849,19 +13890,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="51">
         <v>67050.56796539358</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D36" s="51">
         <v>158793.61979573264</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F36" s="51">
         <v>351150.91002821602</v>
@@ -13869,19 +13910,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" s="51">
         <v>4495778664.481864</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D37" s="51">
         <v>25215413687.831696</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F37" s="51">
         <v>123306961613.64427</v>
@@ -13889,19 +13930,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B38" s="51">
         <v>0.81146082626116822</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D38" s="51">
         <v>-1.5719827000074016E-2</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F38" s="51">
         <v>0.56730123050483083</v>
@@ -13909,19 +13950,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" s="51">
         <v>1.4592668170884653</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D39" s="51">
         <v>1.0730265095992781</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F39" s="51">
         <v>1.2397823168238311</v>
@@ -13929,19 +13970,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" s="51">
         <v>239125.43999999997</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D40" s="51">
         <v>568197.6</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F40" s="51">
         <v>1388072.7</v>
@@ -13949,19 +13990,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="51">
         <v>251.04000000000002</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D41" s="51">
         <v>3790.7999999999997</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F41" s="51">
         <v>6999.6149999999998</v>
@@ -13969,19 +14010,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" s="51">
         <v>239376.47999999998</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D42" s="51">
         <v>571988.4</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" s="51">
         <v>1395072.3149999999</v>
@@ -13989,39 +14030,39 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B43" s="51">
         <v>4736347.68</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D43" s="51">
         <v>16757524.800000003</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F43" s="51">
         <v>32529742.559999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.5" thickBot="1">
+    <row r="44" spans="1:6" ht="16.2" thickBot="1">
       <c r="A44" s="48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44" s="54">
         <v>76</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D44" s="52">
         <v>90</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F44" s="52">
         <v>90</v>
@@ -14045,32 +14086,32 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.2" thickTop="1">
       <c r="A2" s="26">
         <v>42005</v>
       </c>
@@ -14078,14 +14119,14 @@
         <v>239376.47999999998</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D2" t="b">
         <f t="shared" ref="D2:D33" si="0">OR(B2&lt;$G$5,B2&gt;$G$6)</f>
         <v>1</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G2" s="56">
         <f>_xlfn.QUARTILE.INC($B$2:$B$77,1)</f>
@@ -14100,14 +14141,14 @@
         <v>37594.559999999998</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" s="58">
         <f>_xlfn.QUARTILE.INC($B$2:$B$77,3)</f>
@@ -14122,14 +14163,14 @@
         <v>24042.720000000001</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" s="59">
         <f>G3-G2</f>
@@ -14144,14 +14185,14 @@
         <v>25352.639999999999</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G5" s="59">
         <f>G2-1.5*$G$4</f>
@@ -14166,14 +14207,14 @@
         <v>627.84</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" s="61">
         <f>G3+1.5*$G$4</f>
@@ -14188,7 +14229,7 @@
         <v>13005.6</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
@@ -14203,7 +14244,7 @@
         <v>25408.800000000003</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
@@ -14218,14 +14259,14 @@
         <v>51368.160000000003</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <f>COUNTIF(Table4[[#All],[Outlier?]], TRUE)</f>
@@ -14240,7 +14281,7 @@
         <v>36186.239999999998</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
@@ -14255,7 +14296,7 @@
         <v>25777.919999999998</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
@@ -14270,7 +14311,7 @@
         <v>233245.44</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
@@ -14285,7 +14326,7 @@
         <v>31712.639999999999</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
@@ -14300,7 +14341,7 @@
         <v>156256.80000000002</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
@@ -14315,7 +14356,7 @@
         <v>2211.8399999999997</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
@@ -14330,7 +14371,7 @@
         <v>65373.119999999995</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
@@ -14345,7 +14386,7 @@
         <v>9273.1200000000008</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
@@ -14360,7 +14401,7 @@
         <v>38593.920000000006</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
@@ -14375,7 +14416,7 @@
         <v>15390.72</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
@@ -14390,7 +14431,7 @@
         <v>7022.880000000001</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
@@ -14405,7 +14446,7 @@
         <v>45378.720000000001</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
@@ -14420,7 +14461,7 @@
         <v>14133.119999999999</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
@@ -14435,7 +14476,7 @@
         <v>57802.559999999998</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
@@ -14450,7 +14491,7 @@
         <v>189674.40000000002</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
@@ -14465,7 +14506,7 @@
         <v>41668.320000000007</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
@@ -14480,7 +14521,7 @@
         <v>37430.879999999997</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
@@ -14495,7 +14536,7 @@
         <v>170376.48</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
@@ -14510,7 +14551,7 @@
         <v>224818.56000000003</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
@@ -14525,7 +14566,7 @@
         <v>28876.800000000003</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
@@ -14540,7 +14581,7 @@
         <v>64681.440000000002</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
@@ -14555,7 +14596,7 @@
         <v>55969.919999999998</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
@@ -14570,7 +14611,7 @@
         <v>37484.639999999999</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
@@ -14585,7 +14626,7 @@
         <v>251.04000000000002</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
@@ -14600,7 +14641,7 @@
         <v>17110.079999999998</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D34" t="b">
         <f t="shared" ref="D34:D65" si="1">OR(B34&lt;$G$5,B34&gt;$G$6)</f>
@@ -14615,7 +14656,7 @@
         <v>168221.28000000003</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D35" t="b">
         <f t="shared" si="1"/>
@@ -14630,7 +14671,7 @@
         <v>46895.520000000004</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D36" t="b">
         <f t="shared" si="1"/>
@@ -14645,7 +14686,7 @@
         <v>30686.400000000001</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D37" t="b">
         <f t="shared" si="1"/>
@@ -14660,7 +14701,7 @@
         <v>195005.76</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D38" t="b">
         <f t="shared" si="1"/>
@@ -14675,7 +14716,7 @@
         <v>35220</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D39" t="b">
         <f t="shared" si="1"/>
@@ -14690,7 +14731,7 @@
         <v>13255.68</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D40" t="b">
         <f t="shared" si="1"/>
@@ -14705,7 +14746,7 @@
         <v>94519.200000000012</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D41" t="b">
         <f t="shared" si="1"/>
@@ -14720,7 +14761,7 @@
         <v>41878.559999999998</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D42" t="b">
         <f t="shared" si="1"/>
@@ -14735,7 +14776,7 @@
         <v>28663.68</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D43" t="b">
         <f t="shared" si="1"/>
@@ -14750,7 +14791,7 @@
         <v>237997.91999999998</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D44" t="b">
         <f t="shared" si="1"/>
@@ -14765,7 +14806,7 @@
         <v>55892.640000000007</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D45" t="b">
         <f t="shared" si="1"/>
@@ -14780,7 +14821,7 @@
         <v>35808</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D46" t="b">
         <f t="shared" si="1"/>
@@ -14795,7 +14836,7 @@
         <v>37303.200000000004</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D47" t="b">
         <f t="shared" si="1"/>
@@ -14810,7 +14851,7 @@
         <v>21041.279999999999</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D48" t="b">
         <f t="shared" si="1"/>
@@ -14825,7 +14866,7 @@
         <v>18349.919999999998</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D49" t="b">
         <f t="shared" si="1"/>
@@ -14840,7 +14881,7 @@
         <v>9785.76</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D50" t="b">
         <f t="shared" si="1"/>
@@ -14855,7 +14896,7 @@
         <v>25991.52</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D51" t="b">
         <f t="shared" si="1"/>
@@ -14870,7 +14911,7 @@
         <v>9428.64</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D52" t="b">
         <f t="shared" si="1"/>
@@ -14885,7 +14926,7 @@
         <v>34575.360000000001</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D53" t="b">
         <f t="shared" si="1"/>
@@ -14900,7 +14941,7 @@
         <v>630.24</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D54" t="b">
         <f t="shared" si="1"/>
@@ -14915,7 +14956,7 @@
         <v>32628.48</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D55" t="b">
         <f t="shared" si="1"/>
@@ -14930,7 +14971,7 @@
         <v>95619.839999999997</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D56" t="b">
         <f t="shared" si="1"/>
@@ -14945,7 +14986,7 @@
         <v>21174.720000000001</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D57" t="b">
         <f t="shared" si="1"/>
@@ -14960,7 +15001,7 @@
         <v>23726.880000000001</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D58" t="b">
         <f t="shared" si="1"/>
@@ -14975,7 +15016,7 @@
         <v>43570.559999999998</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D59" t="b">
         <f t="shared" si="1"/>
@@ -14990,7 +15031,7 @@
         <v>53816.160000000003</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D60" t="b">
         <f t="shared" si="1"/>
@@ -15005,7 +15046,7 @@
         <v>7098.72</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D61" t="b">
         <f t="shared" si="1"/>
@@ -15020,7 +15061,7 @@
         <v>172171.68000000002</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D62" t="b">
         <f t="shared" si="1"/>
@@ -15035,7 +15076,7 @@
         <v>151936.80000000002</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D63" t="b">
         <f t="shared" si="1"/>
@@ -15050,7 +15091,7 @@
         <v>37769.279999999999</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D64" t="b">
         <f t="shared" si="1"/>
@@ -15065,7 +15106,7 @@
         <v>41821.920000000006</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D65" t="b">
         <f t="shared" si="1"/>
@@ -15080,7 +15121,7 @@
         <v>14777.760000000002</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D66" t="b">
         <f t="shared" ref="D66:D77" si="2">OR(B66&lt;$G$5,B66&gt;$G$6)</f>
@@ -15095,7 +15136,7 @@
         <v>49776</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D67" t="b">
         <f t="shared" si="2"/>
@@ -15110,7 +15151,7 @@
         <v>203158.56</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D68" t="b">
         <f t="shared" si="2"/>
@@ -15125,7 +15166,7 @@
         <v>152751.84</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D69" t="b">
         <f t="shared" si="2"/>
@@ -15140,7 +15181,7 @@
         <v>30502.559999999998</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D70" t="b">
         <f t="shared" si="2"/>
@@ -15155,7 +15196,7 @@
         <v>38691.360000000001</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D71" t="b">
         <f t="shared" si="2"/>
@@ -15170,7 +15211,7 @@
         <v>158603.04</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D72" t="b">
         <f t="shared" si="2"/>
@@ -15185,7 +15226,7 @@
         <v>25699.68</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D73" t="b">
         <f t="shared" si="2"/>
@@ -15200,7 +15241,7 @@
         <v>32183.520000000004</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D74" t="b">
         <f t="shared" si="2"/>
@@ -15215,7 +15256,7 @@
         <v>259.68</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D75" t="b">
         <f t="shared" si="2"/>
@@ -15230,7 +15271,7 @@
         <v>9071.0399999999991</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D76" t="b">
         <f t="shared" si="2"/>
@@ -15245,7 +15286,7 @@
         <v>174908.64</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D77" t="b">
         <f t="shared" si="2"/>
@@ -15268,31 +15309,31 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.2" thickTop="1">
       <c r="A2" s="26">
         <v>42005</v>
       </c>
@@ -15300,14 +15341,14 @@
         <v>108632.4</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D2" s="62" t="b">
         <f>OR(B2&lt;$G$5,B2&gt;$G$6)</f>
         <v>0</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G2" s="56">
         <f>_xlfn.QUARTILE.INC($B$2:$B$91,1)</f>
@@ -15322,14 +15363,14 @@
         <v>552064.79999999993</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D3" s="62" t="b">
         <f t="shared" ref="D3:D66" si="0">OR(B3&lt;$G$5,B3&gt;$G$6)</f>
         <v>0</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" s="58">
         <f>_xlfn.QUARTILE.INC($B$2:$B$91,3)</f>
@@ -15344,14 +15385,14 @@
         <v>334413.59999999998</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D4" s="62" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" s="59">
         <f>G3-G2</f>
@@ -15366,14 +15407,14 @@
         <v>320344.8</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D5" s="62" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G5" s="59">
         <f>G2-1.5*$G$4</f>
@@ -15388,14 +15429,14 @@
         <v>170732.4</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D6" s="62" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" s="61">
         <f>G3+1.5*$G$4</f>
@@ -15410,7 +15451,7 @@
         <v>115460.4</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D7" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15425,7 +15466,7 @@
         <v>87338.4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D8" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15440,14 +15481,14 @@
         <v>36722.400000000001</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D9" s="62" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <f>COUNTIF(Table6[Outlier?], TRUE)</f>
@@ -15462,7 +15503,7 @@
         <v>43419.6</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D10" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15477,7 +15518,7 @@
         <v>73466.399999999994</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D11" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15492,7 +15533,7 @@
         <v>89812.800000000003</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D12" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15507,7 +15548,7 @@
         <v>142387.19999999998</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D13" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15522,7 +15563,7 @@
         <v>571988.4</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D14" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15537,7 +15578,7 @@
         <v>16082.4</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D15" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15552,7 +15593,7 @@
         <v>34863.599999999999</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D16" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15567,7 +15608,7 @@
         <v>104588.4</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D17" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15582,7 +15623,7 @@
         <v>164692.79999999999</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D18" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15597,7 +15638,7 @@
         <v>82984.800000000003</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D19" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15612,7 +15653,7 @@
         <v>3790.7999999999997</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D20" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15627,7 +15668,7 @@
         <v>89874</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D21" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15642,7 +15683,7 @@
         <v>289850.39999999997</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D22" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15657,7 +15698,7 @@
         <v>135958.79999999999</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D23" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15672,7 +15713,7 @@
         <v>90903.599999999991</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D24" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15687,7 +15728,7 @@
         <v>208881.6</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D25" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15702,7 +15743,7 @@
         <v>38420.400000000001</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D26" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15717,7 +15758,7 @@
         <v>107774.39999999999</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D27" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15732,7 +15773,7 @@
         <v>501480</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D28" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15747,7 +15788,7 @@
         <v>77298</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D29" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15762,7 +15803,7 @@
         <v>96086.399999999994</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D30" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15777,7 +15818,7 @@
         <v>285818.39999999997</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D31" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15792,7 +15833,7 @@
         <v>80614.8</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D32" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15807,7 +15848,7 @@
         <v>60554.399999999994</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D33" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15822,7 +15863,7 @@
         <v>498453.6</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D34" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15837,7 +15878,7 @@
         <v>272551.2</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D35" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15852,7 +15893,7 @@
         <v>100866</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D36" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15867,7 +15908,7 @@
         <v>251509.19999999998</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D37" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15882,7 +15923,7 @@
         <v>285852</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D38" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15897,7 +15938,7 @@
         <v>77977.2</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D39" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15912,7 +15953,7 @@
         <v>535593.6</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D40" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15927,7 +15968,7 @@
         <v>80180.399999999994</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D41" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15942,7 +15983,7 @@
         <v>121536</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D42" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15957,7 +15998,7 @@
         <v>116959.2</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D43" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15972,7 +16013,7 @@
         <v>143286</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D44" s="62" t="b">
         <f t="shared" si="0"/>
@@ -15987,7 +16028,7 @@
         <v>544267.19999999995</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D45" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16002,7 +16043,7 @@
         <v>106639.2</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D46" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16017,7 +16058,7 @@
         <v>31240.799999999999</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D47" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16032,7 +16073,7 @@
         <v>402483.6</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D48" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16047,7 +16088,7 @@
         <v>227007.6</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D49" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16062,7 +16103,7 @@
         <v>56900.4</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D50" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16077,7 +16118,7 @@
         <v>365858.39999999997</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D51" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16092,7 +16133,7 @@
         <v>4372.8</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D52" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16107,7 +16148,7 @@
         <v>105668.4</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D53" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16122,7 +16163,7 @@
         <v>59313.599999999999</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D54" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16137,7 +16178,7 @@
         <v>74559.599999999991</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D55" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16152,7 +16193,7 @@
         <v>156504</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D56" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16167,7 +16208,7 @@
         <v>97882.8</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D57" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16182,7 +16223,7 @@
         <v>142374</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D58" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16197,7 +16238,7 @@
         <v>163490.4</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D59" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16212,7 +16253,7 @@
         <v>245263.19999999998</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D60" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16227,7 +16268,7 @@
         <v>216908.4</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D61" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16242,7 +16283,7 @@
         <v>171472.8</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D62" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16257,7 +16298,7 @@
         <v>329599.2</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D63" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16272,7 +16313,7 @@
         <v>48717.599999999999</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D64" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16287,7 +16328,7 @@
         <v>378519.6</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D65" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16302,7 +16343,7 @@
         <v>205700.4</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D66" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16317,7 +16358,7 @@
         <v>343754.39999999997</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D67" s="62" t="b">
         <f t="shared" ref="D67:D91" si="1">OR(B67&lt;$G$5,B67&gt;$G$6)</f>
@@ -16332,7 +16373,7 @@
         <v>427430.39999999997</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D68" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16347,7 +16388,7 @@
         <v>89178</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D69" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16362,7 +16403,7 @@
         <v>38163.599999999999</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D70" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16377,7 +16418,7 @@
         <v>132982.79999999999</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D71" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16392,7 +16433,7 @@
         <v>105732</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D72" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16407,7 +16448,7 @@
         <v>52159.199999999997</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D73" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16422,7 +16463,7 @@
         <v>21932.399999999998</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D74" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16437,7 +16478,7 @@
         <v>10310.4</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D75" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16452,7 +16493,7 @@
         <v>75301.2</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D76" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16467,7 +16508,7 @@
         <v>18448.8</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D77" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16482,7 +16523,7 @@
         <v>530793.6</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D78" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16497,7 +16538,7 @@
         <v>113904</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D79" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16512,7 +16553,7 @@
         <v>109087.2</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D80" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16527,7 +16568,7 @@
         <v>517848</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D81" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16542,7 +16583,7 @@
         <v>364538.39999999997</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D82" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16557,7 +16598,7 @@
         <v>95810.4</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D83" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16572,7 +16613,7 @@
         <v>541342.79999999993</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D84" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16587,7 +16628,7 @@
         <v>58910.400000000001</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D85" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16602,7 +16643,7 @@
         <v>374929.2</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D86" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16617,7 +16658,7 @@
         <v>450775.2</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D87" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16632,7 +16673,7 @@
         <v>68239.199999999997</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D88" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16647,7 +16688,7 @@
         <v>303039.59999999998</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D89" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16662,7 +16703,7 @@
         <v>109822.8</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D90" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16677,7 +16718,7 @@
         <v>66280.800000000003</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D91" s="62" t="b">
         <f t="shared" si="1"/>
@@ -16696,35 +16737,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FF1660-1C9E-4AC3-82DE-3F71FAAE8789}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.2" thickTop="1">
       <c r="A2" s="26">
         <v>42005</v>
       </c>
@@ -16732,14 +16773,14 @@
         <v>31494.014999999999</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D2" s="62" t="b">
         <f>OR(B2&lt;$G$5,B2&gt;$G$6)</f>
         <v>0</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G2" s="56">
         <f>_xlfn.QUARTILE.INC($B$2:$B$91,1)</f>
@@ -16754,14 +16795,14 @@
         <v>238344.12</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D3" s="62" t="b">
         <f t="shared" ref="D3:D66" si="0">OR(B3&lt;$G$5,B3&gt;$G$6)</f>
         <v>0</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" s="58">
         <f>_xlfn.QUARTILE.INC($B$2:$B$91,3)</f>
@@ -16776,14 +16817,14 @@
         <v>51614.01</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D4" s="62" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" s="59">
         <f>G3-G2</f>
@@ -16798,14 +16839,14 @@
         <v>156188.655</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D5" s="62" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G5" s="59">
         <f>G2-1.5*G4</f>
@@ -16820,14 +16861,14 @@
         <v>230108.44500000001</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D6" s="62" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" s="61">
         <f>G3+1.5*G4</f>
@@ -16842,7 +16883,7 @@
         <v>241043.04</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D7" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16857,7 +16898,7 @@
         <v>41734.035000000003</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D8" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16872,14 +16913,14 @@
         <v>1395072.3149999999</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D9" s="62" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <f>COUNTIF(Table5[Outlier?], TRUE)</f>
@@ -16894,7 +16935,7 @@
         <v>281952.09000000003</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D10" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16909,7 +16950,7 @@
         <v>675399.06</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D11" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16924,7 +16965,7 @@
         <v>71660.294999999998</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D12" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16939,7 +16980,7 @@
         <v>222513.48</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D13" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16954,7 +16995,7 @@
         <v>33260.22</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D14" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16969,7 +17010,7 @@
         <v>19260.990000000002</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D15" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16984,7 +17025,7 @@
         <v>487563.3</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D16" s="62" t="b">
         <f t="shared" si="0"/>
@@ -16999,7 +17040,7 @@
         <v>43939.665000000001</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D17" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17014,7 +17055,7 @@
         <v>754203.55500000005</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D18" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17029,7 +17070,7 @@
         <v>140752.07999999999</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D19" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17044,7 +17085,7 @@
         <v>1020877.83</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D20" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17059,7 +17100,7 @@
         <v>68689.214999999997</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D21" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17074,7 +17115,7 @@
         <v>515799.9</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D22" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17089,7 +17130,7 @@
         <v>112076.05500000001</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D23" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17104,7 +17145,7 @@
         <v>881767.21499999997</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D24" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17119,7 +17160,7 @@
         <v>1040853.24</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D25" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17134,7 +17175,7 @@
         <v>826870.27500000002</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D26" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17149,7 +17190,7 @@
         <v>87142.23</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D27" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17164,7 +17205,7 @@
         <v>1233959.2649999999</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D28" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17179,7 +17220,7 @@
         <v>1271409.615</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D29" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17194,7 +17235,7 @@
         <v>149319.45000000001</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D30" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17209,7 +17250,7 @@
         <v>96347.475000000006</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D31" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17224,7 +17265,7 @@
         <v>601147.57499999995</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D32" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17239,7 +17280,7 @@
         <v>24409.35</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D33" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17254,7 +17295,7 @@
         <v>207380.25</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D34" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17269,7 +17310,7 @@
         <v>1033890.48</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D35" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17284,7 +17325,7 @@
         <v>194489.505</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D36" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17299,7 +17340,7 @@
         <v>114911.05500000001</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D37" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17314,7 +17355,7 @@
         <v>757937.25</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D38" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17329,7 +17370,7 @@
         <v>533728.44000000006</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D39" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17344,7 +17385,7 @@
         <v>379011.15</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D40" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17359,7 +17400,7 @@
         <v>215995.815</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D41" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17374,7 +17415,7 @@
         <v>277645.72499999998</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D42" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17389,7 +17430,7 @@
         <v>243169.29</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D43" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17404,7 +17445,7 @@
         <v>723185.82</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D44" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17419,7 +17460,7 @@
         <v>52793.37</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D45" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17434,7 +17475,7 @@
         <v>11161.395</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D46" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17449,7 +17490,7 @@
         <v>77917.14</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D47" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17464,7 +17505,7 @@
         <v>341081.685</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D48" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17479,7 +17520,7 @@
         <v>212327.32500000001</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D49" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17494,7 +17535,7 @@
         <v>19425.420000000002</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D50" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17509,7 +17550,7 @@
         <v>1223895.0149999999</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D51" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17524,7 +17565,7 @@
         <v>233802.45</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D52" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17539,7 +17580,7 @@
         <v>606698.505</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D53" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17554,7 +17595,7 @@
         <v>193244.94</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D54" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17569,7 +17610,7 @@
         <v>319461.97499999998</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D55" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17584,7 +17625,7 @@
         <v>670420.80000000005</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D56" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17599,7 +17640,7 @@
         <v>28196.91</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D57" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17614,7 +17655,7 @@
         <v>1167574.905</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D58" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17629,7 +17670,7 @@
         <v>620910.36</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D59" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17644,7 +17685,7 @@
         <v>319683.10499999998</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D60" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17659,7 +17700,7 @@
         <v>142543.79999999999</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D61" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17674,7 +17715,7 @@
         <v>58233.735000000001</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D62" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17689,7 +17730,7 @@
         <v>147788.54999999999</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D63" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17704,7 +17745,7 @@
         <v>300322.89</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D64" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17719,7 +17760,7 @@
         <v>163772.28</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D65" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17734,7 +17775,7 @@
         <v>164143.66500000001</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D66" s="62" t="b">
         <f t="shared" si="0"/>
@@ -17749,7 +17790,7 @@
         <v>71906.94</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D67" s="62" t="b">
         <f t="shared" ref="D67:D91" si="1">OR(B67&lt;$G$5,B67&gt;$G$6)</f>
@@ -17764,7 +17805,7 @@
         <v>34090.875</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D68" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17779,7 +17820,7 @@
         <v>183844.08</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D69" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17794,7 +17835,7 @@
         <v>175631.08499999999</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D70" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17809,7 +17850,7 @@
         <v>136975.86000000002</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D71" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17824,7 +17865,7 @@
         <v>186687.58499999999</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D72" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17839,7 +17880,7 @@
         <v>161351.19</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D73" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17854,7 +17895,7 @@
         <v>226811.34</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D74" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17869,7 +17910,7 @@
         <v>174122.86499999999</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D75" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17884,7 +17925,7 @@
         <v>730814.80500000005</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D76" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17899,7 +17940,7 @@
         <v>802333.35</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D77" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17914,7 +17955,7 @@
         <v>236719.66500000001</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D78" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17929,7 +17970,7 @@
         <v>635071.18500000006</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D79" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17944,7 +17985,7 @@
         <v>145687.815</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D80" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17959,7 +18000,7 @@
         <v>872939.02500000002</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D81" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17974,7 +18015,7 @@
         <v>150807.82500000001</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D82" s="62" t="b">
         <f t="shared" si="1"/>
@@ -17989,7 +18030,7 @@
         <v>743784.93</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D83" s="62" t="b">
         <f t="shared" si="1"/>
@@ -18004,7 +18045,7 @@
         <v>354026.29499999998</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D84" s="62" t="b">
         <f t="shared" si="1"/>
@@ -18019,7 +18060,7 @@
         <v>313145.59500000003</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D85" s="62" t="b">
         <f t="shared" si="1"/>
@@ -18034,7 +18075,7 @@
         <v>197157.24</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D86" s="62" t="b">
         <f t="shared" si="1"/>
@@ -18049,7 +18090,7 @@
         <v>6999.6149999999998</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D87" s="62" t="b">
         <f t="shared" si="1"/>
@@ -18064,7 +18105,7 @@
         <v>154907.23500000002</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D88" s="62" t="b">
         <f t="shared" si="1"/>
@@ -18079,7 +18120,7 @@
         <v>127322.685</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D89" s="62" t="b">
         <f t="shared" si="1"/>
@@ -18094,7 +18135,7 @@
         <v>116064.9</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D90" s="62" t="b">
         <f t="shared" si="1"/>
@@ -18109,7 +18150,7 @@
         <v>787021.51500000001</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D91" s="62" t="b">
         <f t="shared" si="1"/>
